--- a/MADAM_ML.xlsx
+++ b/MADAM_ML.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lican/zen/home/canli/work/MADAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF1530-D931-B146-8DED-BE90E6A6DAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BB37D6-DF9F-0644-A167-7C8E0F4D1A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{6D0D7AA5-BD27-A746-9CFF-CF05F7ED3826}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19380" activeTab="1" xr2:uid="{6D0D7AA5-BD27-A746-9CFF-CF05F7ED3826}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
+    <sheet name="Benchmark" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="189">
   <si>
     <t>#node</t>
   </si>
@@ -56,16 +57,569 @@
   </si>
   <si>
     <t>UB</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>The problem is solved using 10 processors</t>
+  </si>
+  <si>
+    <t>allnodes</t>
+  </si>
+  <si>
+    <t>g05_100.0</t>
+  </si>
+  <si>
+    <t>g05_100.1</t>
+  </si>
+  <si>
+    <t>g05_100.2</t>
+  </si>
+  <si>
+    <t>g05_100.3</t>
+  </si>
+  <si>
+    <t>g05_100.4</t>
+  </si>
+  <si>
+    <t>g05_100.5</t>
+  </si>
+  <si>
+    <t>g05_100.6</t>
+  </si>
+  <si>
+    <t>g05_100.7</t>
+  </si>
+  <si>
+    <t>g05_100.8</t>
+  </si>
+  <si>
+    <t>g05_100.9</t>
+  </si>
+  <si>
+    <t>g05_60.0</t>
+  </si>
+  <si>
+    <t>g05_60.1</t>
+  </si>
+  <si>
+    <t>g05_60.2</t>
+  </si>
+  <si>
+    <t>g05_60.3</t>
+  </si>
+  <si>
+    <t>g05_60.4</t>
+  </si>
+  <si>
+    <t>g05_60.5</t>
+  </si>
+  <si>
+    <t>g05_60.6</t>
+  </si>
+  <si>
+    <t>g05_60.7</t>
+  </si>
+  <si>
+    <t>g05_60.8</t>
+  </si>
+  <si>
+    <t>g05_60.9</t>
+  </si>
+  <si>
+    <t>g05_80.0</t>
+  </si>
+  <si>
+    <t>g05_80.1</t>
+  </si>
+  <si>
+    <t>g05_80.2</t>
+  </si>
+  <si>
+    <t>g05_80.3</t>
+  </si>
+  <si>
+    <t>g05_80.4</t>
+  </si>
+  <si>
+    <t>g05_80.5</t>
+  </si>
+  <si>
+    <t>g05_80.6</t>
+  </si>
+  <si>
+    <t>g05_80.7</t>
+  </si>
+  <si>
+    <t>g05_80.8</t>
+  </si>
+  <si>
+    <t>g05_80.9</t>
+  </si>
+  <si>
+    <t>pm1d_100.0</t>
+  </si>
+  <si>
+    <t>pm1d_100.1</t>
+  </si>
+  <si>
+    <t>pm1d_100.2</t>
+  </si>
+  <si>
+    <t>pm1d_100.3</t>
+  </si>
+  <si>
+    <t>pm1d_100.4</t>
+  </si>
+  <si>
+    <t>pm1d_100.5</t>
+  </si>
+  <si>
+    <t>pm1d_100.6</t>
+  </si>
+  <si>
+    <t>pm1d_100.7</t>
+  </si>
+  <si>
+    <t>pm1d_100.8</t>
+  </si>
+  <si>
+    <t>pm1d_100.9</t>
+  </si>
+  <si>
+    <t>pm1d_80.0</t>
+  </si>
+  <si>
+    <t>pm1d_80.1</t>
+  </si>
+  <si>
+    <t>pm1d_80.2</t>
+  </si>
+  <si>
+    <t>pm1d_80.3</t>
+  </si>
+  <si>
+    <t>pm1d_80.4</t>
+  </si>
+  <si>
+    <t>pm1d_80.5</t>
+  </si>
+  <si>
+    <t>pm1d_80.6</t>
+  </si>
+  <si>
+    <t>pm1d_80.7</t>
+  </si>
+  <si>
+    <t>pm1d_80.8</t>
+  </si>
+  <si>
+    <t>pm1d_80.9</t>
+  </si>
+  <si>
+    <t>pm1s_100.0</t>
+  </si>
+  <si>
+    <t>pm1s_100.1</t>
+  </si>
+  <si>
+    <t>pm1s_100.2</t>
+  </si>
+  <si>
+    <t>pm1s_100.3</t>
+  </si>
+  <si>
+    <t>pm1s_100.4</t>
+  </si>
+  <si>
+    <t>pm1s_100.5</t>
+  </si>
+  <si>
+    <t>pm1s_100.6</t>
+  </si>
+  <si>
+    <t>pm1s_100.7</t>
+  </si>
+  <si>
+    <t>pm1s_100.8</t>
+  </si>
+  <si>
+    <t>pm1s_100.9</t>
+  </si>
+  <si>
+    <t>pm1s_80.0</t>
+  </si>
+  <si>
+    <t>pm1s_80.1</t>
+  </si>
+  <si>
+    <t>pm1s_80.2</t>
+  </si>
+  <si>
+    <t>pm1s_80.3</t>
+  </si>
+  <si>
+    <t>pm1s_80.4</t>
+  </si>
+  <si>
+    <t>pm1s_80.5</t>
+  </si>
+  <si>
+    <t>pm1s_80.6</t>
+  </si>
+  <si>
+    <t>pm1s_80.7</t>
+  </si>
+  <si>
+    <t>pm1s_80.8</t>
+  </si>
+  <si>
+    <t>pm1s_80.9</t>
+  </si>
+  <si>
+    <t>pw01_100.0</t>
+  </si>
+  <si>
+    <t>pw01_100.1</t>
+  </si>
+  <si>
+    <t>pw01_100.2</t>
+  </si>
+  <si>
+    <t>pw01_100.3</t>
+  </si>
+  <si>
+    <t>pw01_100.4</t>
+  </si>
+  <si>
+    <t>pw01_100.5</t>
+  </si>
+  <si>
+    <t>pw01_100.6</t>
+  </si>
+  <si>
+    <t>pw01_100.7</t>
+  </si>
+  <si>
+    <t>pw01_100.8</t>
+  </si>
+  <si>
+    <t>pw01_100.9</t>
+  </si>
+  <si>
+    <t>pw05_100.0</t>
+  </si>
+  <si>
+    <t>pw05_100.1</t>
+  </si>
+  <si>
+    <t>pw05_100.2</t>
+  </si>
+  <si>
+    <t>pw05_100.3</t>
+  </si>
+  <si>
+    <t>pw05_100.4</t>
+  </si>
+  <si>
+    <t>pw05_100.5</t>
+  </si>
+  <si>
+    <t>pw05_100.6</t>
+  </si>
+  <si>
+    <t>pw05_100.7</t>
+  </si>
+  <si>
+    <t>pw05_100.8</t>
+  </si>
+  <si>
+    <t>pw05_100.9</t>
+  </si>
+  <si>
+    <t>pw09_100.0</t>
+  </si>
+  <si>
+    <t>pw09_100.1</t>
+  </si>
+  <si>
+    <t>pw09_100.2</t>
+  </si>
+  <si>
+    <t>pw09_100.3</t>
+  </si>
+  <si>
+    <t>pw09_100.4</t>
+  </si>
+  <si>
+    <t>pw09_100.5</t>
+  </si>
+  <si>
+    <t>pw09_100.6</t>
+  </si>
+  <si>
+    <t>pw09_100.7</t>
+  </si>
+  <si>
+    <t>pw09_100.8</t>
+  </si>
+  <si>
+    <t>pw09_100.9</t>
+  </si>
+  <si>
+    <t>w01_100.0</t>
+  </si>
+  <si>
+    <t>w01_100.1</t>
+  </si>
+  <si>
+    <t>w01_100.2</t>
+  </si>
+  <si>
+    <t>w01_100.3</t>
+  </si>
+  <si>
+    <t>w01_100.4</t>
+  </si>
+  <si>
+    <t>w01_100.5</t>
+  </si>
+  <si>
+    <t>w01_100.6</t>
+  </si>
+  <si>
+    <t>w01_100.7</t>
+  </si>
+  <si>
+    <t>w01_100.8</t>
+  </si>
+  <si>
+    <t>w01_100.9</t>
+  </si>
+  <si>
+    <t>w05_100.0</t>
+  </si>
+  <si>
+    <t>w05_100.1</t>
+  </si>
+  <si>
+    <t>w05_100.2</t>
+  </si>
+  <si>
+    <t>w05_100.3</t>
+  </si>
+  <si>
+    <t>w05_100.4</t>
+  </si>
+  <si>
+    <t>w05_100.5</t>
+  </si>
+  <si>
+    <t>w05_100.6</t>
+  </si>
+  <si>
+    <t>w05_100.7</t>
+  </si>
+  <si>
+    <t>w05_100.8</t>
+  </si>
+  <si>
+    <t>w05_100.9</t>
+  </si>
+  <si>
+    <t>w09_100.0</t>
+  </si>
+  <si>
+    <t>w09_100.1</t>
+  </si>
+  <si>
+    <t>w09_100.2</t>
+  </si>
+  <si>
+    <t>w09_100.3</t>
+  </si>
+  <si>
+    <t>w09_100.4</t>
+  </si>
+  <si>
+    <t>w09_100.5</t>
+  </si>
+  <si>
+    <t>w09_100.6</t>
+  </si>
+  <si>
+    <t>w09_100.7</t>
+  </si>
+  <si>
+    <t>w09_100.8</t>
+  </si>
+  <si>
+    <t>w09_100.9</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>unweighted_100_01_1</t>
+  </si>
+  <si>
+    <t>unweighted_100_01_2</t>
+  </si>
+  <si>
+    <t>unweighted_100_01_3</t>
+  </si>
+  <si>
+    <t>unweighted_100_01_4</t>
+  </si>
+  <si>
+    <t>unweighted_100_01_5</t>
+  </si>
+  <si>
+    <t>unweighted_100_02_1</t>
+  </si>
+  <si>
+    <t>unweighted_100_02_2</t>
+  </si>
+  <si>
+    <t>unweighted_100_02_3</t>
+  </si>
+  <si>
+    <t>unweighted_100_02_4</t>
+  </si>
+  <si>
+    <t>unweighted_100_02_5</t>
+  </si>
+  <si>
+    <t>unweighted_100_03_1</t>
+  </si>
+  <si>
+    <t>unweighted_100_03_2</t>
+  </si>
+  <si>
+    <t>unweighted_100_03_3</t>
+  </si>
+  <si>
+    <t>unweighted_100_03_4</t>
+  </si>
+  <si>
+    <t>unweighted_100_03_5</t>
+  </si>
+  <si>
+    <t>unweighted_100_04_1</t>
+  </si>
+  <si>
+    <t>unweighted_100_04_2</t>
+  </si>
+  <si>
+    <t>unweighted_100_04_3</t>
+  </si>
+  <si>
+    <t>unweighted_100_04_4</t>
+  </si>
+  <si>
+    <t>unweighted_100_04_5</t>
+  </si>
+  <si>
+    <t>unweighted_100_05_1</t>
+  </si>
+  <si>
+    <t>unweighted_100_05_2</t>
+  </si>
+  <si>
+    <t>unweighted_100_05_3</t>
+  </si>
+  <si>
+    <t>unweighted_100_05_4</t>
+  </si>
+  <si>
+    <t>unweighted_100_05_5</t>
+  </si>
+  <si>
+    <t>unweighted_100_06_1</t>
+  </si>
+  <si>
+    <t>unweighted_100_06_2</t>
+  </si>
+  <si>
+    <t>unweighted_100_06_3</t>
+  </si>
+  <si>
+    <t>unweighted_100_06_4</t>
+  </si>
+  <si>
+    <t>unweighted_100_06_5</t>
+  </si>
+  <si>
+    <t>unweighted_100_07_1</t>
+  </si>
+  <si>
+    <t>unweighted_100_07_2</t>
+  </si>
+  <si>
+    <t>unweighted_100_07_3</t>
+  </si>
+  <si>
+    <t>unweighted_100_07_4</t>
+  </si>
+  <si>
+    <t>unweighted_100_07_5</t>
+  </si>
+  <si>
+    <t>unweighted_100_08_1</t>
+  </si>
+  <si>
+    <t>unweighted_100_08_2</t>
+  </si>
+  <si>
+    <t>unweighted_100_08_3</t>
+  </si>
+  <si>
+    <t>unweighted_100_08_4</t>
+  </si>
+  <si>
+    <t>unweighted_100_08_5</t>
+  </si>
+  <si>
+    <t>unweighted_100_09_1</t>
+  </si>
+  <si>
+    <t>unweighted_100_09_2</t>
+  </si>
+  <si>
+    <t>unweighted_100_09_3</t>
+  </si>
+  <si>
+    <t>unweighted_100_09_4</t>
+  </si>
+  <si>
+    <t>unweighted_100_09_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,8 +645,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B848A6-9F3F-084F-8125-A25210F03A25}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -447,4 +1002,4020 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AD837-A94B-514F-A7DD-FC238877F7A9}">
+  <dimension ref="A2:Q136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>15.65</v>
+      </c>
+      <c r="C5">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>20.9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>239</v>
+      </c>
+      <c r="I5" s="1">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5">
+        <v>2.23</v>
+      </c>
+      <c r="M5">
+        <v>5.65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>70.290000000000006</v>
+      </c>
+      <c r="C6">
+        <v>327.38</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D69" si="0">C6-B6</f>
+        <v>257.08999999999997</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>609</v>
+      </c>
+      <c r="I6" s="1">
+        <v>341</v>
+      </c>
+      <c r="K6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6">
+        <v>1.03</v>
+      </c>
+      <c r="M6">
+        <v>1.02</v>
+      </c>
+      <c r="O6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>7.81</v>
+      </c>
+      <c r="C7">
+        <v>19.87</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>12.060000000000002</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7">
+        <v>2.98</v>
+      </c>
+      <c r="M7">
+        <v>4.58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="C8">
+        <v>62.64</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>44.150000000000006</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>501</v>
+      </c>
+      <c r="I8" s="1">
+        <v>145</v>
+      </c>
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8">
+        <v>3.28</v>
+      </c>
+      <c r="M8">
+        <v>5.26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P8">
+        <v>33</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>4.95</v>
+      </c>
+      <c r="C9">
+        <v>6.52</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.5699999999999994</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9">
+        <v>5.72</v>
+      </c>
+      <c r="M9">
+        <v>4.8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>6.04</v>
+      </c>
+      <c r="C10">
+        <v>12.78</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6.7399999999999993</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10">
+        <v>12.36</v>
+      </c>
+      <c r="M10">
+        <v>28.04</v>
+      </c>
+      <c r="O10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10">
+        <v>175</v>
+      </c>
+      <c r="Q10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>10.38</v>
+      </c>
+      <c r="C11">
+        <v>14.77</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4.3899999999999988</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>11.46</v>
+      </c>
+      <c r="M11">
+        <v>26.63</v>
+      </c>
+      <c r="O11" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11">
+        <v>217</v>
+      </c>
+      <c r="Q11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="C12">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>17.179999999999996</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>107</v>
+      </c>
+      <c r="I12" s="1">
+        <v>63</v>
+      </c>
+      <c r="K12" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12">
+        <v>5.8</v>
+      </c>
+      <c r="M12">
+        <v>11.66</v>
+      </c>
+      <c r="O12" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12">
+        <v>53</v>
+      </c>
+      <c r="Q12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>17.23</v>
+      </c>
+      <c r="C13">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-1.2199999999999989</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>163</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>7.23</v>
+      </c>
+      <c r="O13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13">
+        <v>47</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>11.32</v>
+      </c>
+      <c r="C14">
+        <v>21.65</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>10.329999999999998</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>265</v>
+      </c>
+      <c r="I14" s="1">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14">
+        <v>2.85</v>
+      </c>
+      <c r="M14">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="O14" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>9.9999999999998979E-3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="M15">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="O15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P15">
+        <v>99</v>
+      </c>
+      <c r="Q15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>0.31</v>
+      </c>
+      <c r="C16">
+        <v>0.31</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16">
+        <v>3.53</v>
+      </c>
+      <c r="M16">
+        <v>7.26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16">
+        <v>43</v>
+      </c>
+      <c r="Q16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1.36</v>
+      </c>
+      <c r="C17">
+        <v>1.34</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17">
+        <v>7.98</v>
+      </c>
+      <c r="M17">
+        <v>20.67</v>
+      </c>
+      <c r="O17" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17">
+        <v>149</v>
+      </c>
+      <c r="Q17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0.31</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18">
+        <v>12.42</v>
+      </c>
+      <c r="M18">
+        <v>20.93</v>
+      </c>
+      <c r="O18" t="s">
+        <v>157</v>
+      </c>
+      <c r="P18">
+        <v>279</v>
+      </c>
+      <c r="Q18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>1.33</v>
+      </c>
+      <c r="C19">
+        <v>1.84</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19">
+        <v>14.72</v>
+      </c>
+      <c r="M19">
+        <v>39.39</v>
+      </c>
+      <c r="O19" t="s">
+        <v>158</v>
+      </c>
+      <c r="P19">
+        <v>267</v>
+      </c>
+      <c r="Q19">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0.19</v>
+      </c>
+      <c r="C20">
+        <v>0.19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20">
+        <v>24.01</v>
+      </c>
+      <c r="M20">
+        <v>83.14</v>
+      </c>
+      <c r="O20" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20">
+        <v>443</v>
+      </c>
+      <c r="Q20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.04</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21">
+        <v>15.58</v>
+      </c>
+      <c r="M21">
+        <v>25.78</v>
+      </c>
+      <c r="O21" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21">
+        <v>79</v>
+      </c>
+      <c r="Q21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>1.22</v>
+      </c>
+      <c r="C22">
+        <v>1.22</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22">
+        <v>7.33</v>
+      </c>
+      <c r="M22">
+        <v>16.61</v>
+      </c>
+      <c r="O22" t="s">
+        <v>161</v>
+      </c>
+      <c r="P22">
+        <v>67</v>
+      </c>
+      <c r="Q22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C23">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23">
+        <v>6.06</v>
+      </c>
+      <c r="M23">
+        <v>15.08</v>
+      </c>
+      <c r="O23" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23">
+        <v>51</v>
+      </c>
+      <c r="Q23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>1.9</v>
+      </c>
+      <c r="C24">
+        <v>1.88</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24">
+        <v>6.02</v>
+      </c>
+      <c r="M24">
+        <v>8.34</v>
+      </c>
+      <c r="O24" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24">
+        <v>47</v>
+      </c>
+      <c r="Q24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>2.66</v>
+      </c>
+      <c r="C25">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.1099999999999994</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <v>19</v>
+      </c>
+      <c r="I25" s="1">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25">
+        <v>14.31</v>
+      </c>
+      <c r="M25">
+        <v>43.72</v>
+      </c>
+      <c r="O25" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25">
+        <v>325</v>
+      </c>
+      <c r="Q25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>1.46</v>
+      </c>
+      <c r="C26">
+        <v>1.46</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26">
+        <v>3.16</v>
+      </c>
+      <c r="M26">
+        <v>7.62</v>
+      </c>
+      <c r="O26" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26">
+        <v>31</v>
+      </c>
+      <c r="Q26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C27">
+        <v>2.72</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000037</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27">
+        <v>30.5</v>
+      </c>
+      <c r="M27">
+        <v>78.38</v>
+      </c>
+      <c r="O27" t="s">
+        <v>166</v>
+      </c>
+      <c r="P27">
+        <v>291</v>
+      </c>
+      <c r="Q27">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>5.9</v>
+      </c>
+      <c r="C28">
+        <v>13.84</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28">
+        <v>209</v>
+      </c>
+      <c r="I28" s="1">
+        <v>63</v>
+      </c>
+      <c r="K28" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28">
+        <v>22.12</v>
+      </c>
+      <c r="M28">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="O28" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28">
+        <v>129</v>
+      </c>
+      <c r="Q28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>3.67</v>
+      </c>
+      <c r="C29">
+        <v>4.76</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7</v>
+      </c>
+      <c r="K29" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29">
+        <v>6.1</v>
+      </c>
+      <c r="M29">
+        <v>7.14</v>
+      </c>
+      <c r="O29" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29">
+        <v>29</v>
+      </c>
+      <c r="Q29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>2.37</v>
+      </c>
+      <c r="C30">
+        <v>3.46</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30">
+        <v>8.44</v>
+      </c>
+      <c r="M30">
+        <v>15.05</v>
+      </c>
+      <c r="O30" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30">
+        <v>57</v>
+      </c>
+      <c r="Q30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>3.2</v>
+      </c>
+      <c r="C31">
+        <v>3.76</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.55999999999999961</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7</v>
+      </c>
+      <c r="K31" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="M31">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="O31" t="s">
+        <v>170</v>
+      </c>
+      <c r="P31">
+        <v>161</v>
+      </c>
+      <c r="Q31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>2.46</v>
+      </c>
+      <c r="C32">
+        <v>2.46</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="M32">
+        <v>58.85</v>
+      </c>
+      <c r="O32" t="s">
+        <v>171</v>
+      </c>
+      <c r="P32">
+        <v>451</v>
+      </c>
+      <c r="Q32">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>2.64</v>
+      </c>
+      <c r="C33">
+        <v>3.95</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1.31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33" s="1">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33">
+        <v>8.11</v>
+      </c>
+      <c r="M33">
+        <v>15.98</v>
+      </c>
+      <c r="O33" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33">
+        <v>97</v>
+      </c>
+      <c r="Q33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>2.61</v>
+      </c>
+      <c r="C34">
+        <v>5.96</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3.35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
+        <v>173</v>
+      </c>
+      <c r="L34">
+        <v>23.18</v>
+      </c>
+      <c r="M34">
+        <v>43.03</v>
+      </c>
+      <c r="O34" t="s">
+        <v>173</v>
+      </c>
+      <c r="P34">
+        <v>177</v>
+      </c>
+      <c r="Q34">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="C35">
+        <v>57.18</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>38.69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35">
+        <v>345</v>
+      </c>
+      <c r="I35" s="1">
+        <v>125</v>
+      </c>
+      <c r="K35" t="s">
+        <v>174</v>
+      </c>
+      <c r="L35">
+        <v>14.63</v>
+      </c>
+      <c r="M35">
+        <v>31.78</v>
+      </c>
+      <c r="O35" t="s">
+        <v>174</v>
+      </c>
+      <c r="P35">
+        <v>131</v>
+      </c>
+      <c r="Q35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>30.68</v>
+      </c>
+      <c r="C36">
+        <v>129.91999999999999</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>99.239999999999981</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36">
+        <v>601</v>
+      </c>
+      <c r="I36" s="1">
+        <v>213</v>
+      </c>
+      <c r="K36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L36">
+        <v>9.18</v>
+      </c>
+      <c r="M36">
+        <v>15.92</v>
+      </c>
+      <c r="O36" t="s">
+        <v>175</v>
+      </c>
+      <c r="P36">
+        <v>117</v>
+      </c>
+      <c r="Q36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="C37">
+        <v>73.2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>55.870000000000005</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37">
+        <v>543</v>
+      </c>
+      <c r="I37" s="1">
+        <v>149</v>
+      </c>
+      <c r="K37" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37">
+        <v>27.41</v>
+      </c>
+      <c r="M37">
+        <v>71.19</v>
+      </c>
+      <c r="O37" t="s">
+        <v>176</v>
+      </c>
+      <c r="P37">
+        <v>641</v>
+      </c>
+      <c r="Q37">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>9.82</v>
+      </c>
+      <c r="C38">
+        <v>18.54</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>8.7199999999999989</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38">
+        <v>105</v>
+      </c>
+      <c r="I38" s="1">
+        <v>43</v>
+      </c>
+      <c r="K38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38">
+        <v>7.28</v>
+      </c>
+      <c r="M38">
+        <v>10.3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P38">
+        <v>59</v>
+      </c>
+      <c r="Q38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>17.87</v>
+      </c>
+      <c r="C39">
+        <v>60.02</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>42.150000000000006</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39">
+        <v>255</v>
+      </c>
+      <c r="I39" s="1">
+        <v>123</v>
+      </c>
+      <c r="K39" t="s">
+        <v>178</v>
+      </c>
+      <c r="L39">
+        <v>6.1</v>
+      </c>
+      <c r="M39">
+        <v>7.33</v>
+      </c>
+      <c r="O39" t="s">
+        <v>178</v>
+      </c>
+      <c r="P39">
+        <v>31</v>
+      </c>
+      <c r="Q39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>9.81</v>
+      </c>
+      <c r="C40">
+        <v>22.28</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>12.47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40">
+        <v>77</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45</v>
+      </c>
+      <c r="K40" t="s">
+        <v>179</v>
+      </c>
+      <c r="L40">
+        <v>7.7</v>
+      </c>
+      <c r="M40">
+        <v>14.93</v>
+      </c>
+      <c r="O40" t="s">
+        <v>179</v>
+      </c>
+      <c r="P40">
+        <v>53</v>
+      </c>
+      <c r="Q40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>9.42</v>
+      </c>
+      <c r="C41">
+        <v>13.68</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>4.26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41">
+        <v>61</v>
+      </c>
+      <c r="I41" s="1">
+        <v>33</v>
+      </c>
+      <c r="K41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L41">
+        <v>15.41</v>
+      </c>
+      <c r="M41">
+        <v>41.59</v>
+      </c>
+      <c r="O41" t="s">
+        <v>180</v>
+      </c>
+      <c r="P41">
+        <v>185</v>
+      </c>
+      <c r="Q41">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>6.31</v>
+      </c>
+      <c r="C42">
+        <v>17.2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>10.89</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42">
+        <v>17</v>
+      </c>
+      <c r="I42" s="1">
+        <v>15</v>
+      </c>
+      <c r="K42" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42">
+        <v>7.36</v>
+      </c>
+      <c r="M42">
+        <v>10.49</v>
+      </c>
+      <c r="O42" t="s">
+        <v>181</v>
+      </c>
+      <c r="P42">
+        <v>61</v>
+      </c>
+      <c r="Q42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C43">
+        <v>7.94</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>3.1700000000000008</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+      <c r="I43" s="1">
+        <v>15</v>
+      </c>
+      <c r="K43" t="s">
+        <v>182</v>
+      </c>
+      <c r="L43">
+        <v>36.57</v>
+      </c>
+      <c r="M43">
+        <v>97.86</v>
+      </c>
+      <c r="O43" t="s">
+        <v>182</v>
+      </c>
+      <c r="P43">
+        <v>355</v>
+      </c>
+      <c r="Q43">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>9.48</v>
+      </c>
+      <c r="C44">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>9.5999999999999979</v>
+      </c>
+      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>79</v>
+      </c>
+      <c r="I44" s="1">
+        <v>57</v>
+      </c>
+      <c r="K44" t="s">
+        <v>183</v>
+      </c>
+      <c r="L44">
+        <v>16.16</v>
+      </c>
+      <c r="M44">
+        <v>31.11</v>
+      </c>
+      <c r="O44" t="s">
+        <v>183</v>
+      </c>
+      <c r="P44">
+        <v>255</v>
+      </c>
+      <c r="Q44">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C45">
+        <v>3.33</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="G45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>184</v>
+      </c>
+      <c r="L45">
+        <v>4.17</v>
+      </c>
+      <c r="M45">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="O45" t="s">
+        <v>184</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="C46">
+        <v>7.98</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46">
+        <v>53</v>
+      </c>
+      <c r="I46" s="1">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>185</v>
+      </c>
+      <c r="L46">
+        <v>12.93</v>
+      </c>
+      <c r="M46">
+        <v>10.88</v>
+      </c>
+      <c r="O46" t="s">
+        <v>185</v>
+      </c>
+      <c r="P46">
+        <v>145</v>
+      </c>
+      <c r="Q46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
+        <v>5.68</v>
+      </c>
+      <c r="C47">
+        <v>12.86</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>7.18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47">
+        <v>33</v>
+      </c>
+      <c r="I47" s="1">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
+        <v>186</v>
+      </c>
+      <c r="L47">
+        <v>6.49</v>
+      </c>
+      <c r="M47">
+        <v>7.26</v>
+      </c>
+      <c r="O47" t="s">
+        <v>186</v>
+      </c>
+      <c r="P47">
+        <v>93</v>
+      </c>
+      <c r="Q47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
+        <v>2.73</v>
+      </c>
+      <c r="C48">
+        <v>3.33</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>187</v>
+      </c>
+      <c r="L48">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="M48">
+        <v>26.22</v>
+      </c>
+      <c r="O48" t="s">
+        <v>187</v>
+      </c>
+      <c r="P48">
+        <v>339</v>
+      </c>
+      <c r="Q48">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>2.94</v>
+      </c>
+      <c r="C49">
+        <v>3.77</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7</v>
+      </c>
+      <c r="K49" t="s">
+        <v>188</v>
+      </c>
+      <c r="L49">
+        <v>5.65</v>
+      </c>
+      <c r="M49">
+        <v>15.93</v>
+      </c>
+      <c r="O49" t="s">
+        <v>188</v>
+      </c>
+      <c r="P49">
+        <v>55</v>
+      </c>
+      <c r="Q49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C50">
+        <v>9.48</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>5.3400000000000007</v>
+      </c>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50">
+        <v>77</v>
+      </c>
+      <c r="I50" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>4.43</v>
+      </c>
+      <c r="C51">
+        <v>4.66</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51">
+        <v>25</v>
+      </c>
+      <c r="I51" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>3.57</v>
+      </c>
+      <c r="C52">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>4.7199999999999989</v>
+      </c>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52">
+        <v>21</v>
+      </c>
+      <c r="I52" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>3.84</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="G53" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>1.94</v>
+      </c>
+      <c r="C54">
+        <v>3.03</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>2.25</v>
+      </c>
+      <c r="C55">
+        <v>2.25</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>4.24</v>
+      </c>
+      <c r="C56">
+        <v>7.68</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>3.4399999999999995</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56">
+        <v>23</v>
+      </c>
+      <c r="I56" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>1.28</v>
+      </c>
+      <c r="C57">
+        <v>1.29</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="C58">
+        <v>6.73</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>-2.74</v>
+      </c>
+      <c r="G58" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58">
+        <v>37</v>
+      </c>
+      <c r="I58" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C59">
+        <v>5.32</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="G59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>2.16</v>
+      </c>
+      <c r="C60">
+        <v>2.93</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="G60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>4.03</v>
+      </c>
+      <c r="C61">
+        <v>6.38</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61">
+        <v>13</v>
+      </c>
+      <c r="I61" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <v>0.48</v>
+      </c>
+      <c r="C62">
+        <v>0.51</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>3.32</v>
+      </c>
+      <c r="C63">
+        <v>3.35</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>2.48</v>
+      </c>
+      <c r="C64">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>6.999999999999984E-2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>0.54</v>
+      </c>
+      <c r="C65">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <v>0.61</v>
+      </c>
+      <c r="C66">
+        <v>0.61</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <v>2.96</v>
+      </c>
+      <c r="C67">
+        <v>2.97</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>1.31</v>
+      </c>
+      <c r="C68">
+        <v>1.32</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>0.53</v>
+      </c>
+      <c r="C69">
+        <v>0.52</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>0.51</v>
+      </c>
+      <c r="C70">
+        <v>0.51</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70:D133" si="1">C70-B70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>0.84</v>
+      </c>
+      <c r="C71">
+        <v>0.85</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
+        <v>0.38</v>
+      </c>
+      <c r="C72">
+        <v>0.37</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>1.77</v>
+      </c>
+      <c r="C73">
+        <v>1.76</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
+        <v>0.42</v>
+      </c>
+      <c r="C74">
+        <v>0.43</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>3.59</v>
+      </c>
+      <c r="C75">
+        <v>3.66</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>10.53</v>
+      </c>
+      <c r="C76">
+        <v>9.02</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>-1.5099999999999998</v>
+      </c>
+      <c r="G76" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76">
+        <v>7</v>
+      </c>
+      <c r="I76" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>5.8</v>
+      </c>
+      <c r="C77">
+        <v>5.84</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
+        <v>3.78</v>
+      </c>
+      <c r="C78">
+        <v>5.45</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>1.6700000000000004</v>
+      </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78">
+        <v>7</v>
+      </c>
+      <c r="I78" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>1.36</v>
+      </c>
+      <c r="C79">
+        <v>1.36</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
+        <v>1.24</v>
+      </c>
+      <c r="C80">
+        <v>1.25</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
+        <v>5.7</v>
+      </c>
+      <c r="C81">
+        <v>5.7</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
+        <v>4.01</v>
+      </c>
+      <c r="C82">
+        <v>4.05</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>88</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>0.6</v>
+      </c>
+      <c r="C83">
+        <v>0.61</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>6.38</v>
+      </c>
+      <c r="C84">
+        <v>7.7</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84">
+        <v>25</v>
+      </c>
+      <c r="I84" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
+        <v>31.04</v>
+      </c>
+      <c r="C85">
+        <v>116.36</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>85.32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85">
+        <v>761</v>
+      </c>
+      <c r="I85" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>14.02</v>
+      </c>
+      <c r="C86">
+        <v>32.08</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>18.059999999999999</v>
+      </c>
+      <c r="G86" t="s">
+        <v>92</v>
+      </c>
+      <c r="H86">
+        <v>109</v>
+      </c>
+      <c r="I86" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>15.39</v>
+      </c>
+      <c r="C87">
+        <v>38.68</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>23.29</v>
+      </c>
+      <c r="G87" t="s">
+        <v>93</v>
+      </c>
+      <c r="H87">
+        <v>159</v>
+      </c>
+      <c r="I87" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>6.11</v>
+      </c>
+      <c r="C88">
+        <v>11.67</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>5.56</v>
+      </c>
+      <c r="G88" t="s">
+        <v>94</v>
+      </c>
+      <c r="H88">
+        <v>35</v>
+      </c>
+      <c r="I88" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>18.07</v>
+      </c>
+      <c r="C89">
+        <v>51.01</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>32.94</v>
+      </c>
+      <c r="G89" t="s">
+        <v>95</v>
+      </c>
+      <c r="H89">
+        <v>185</v>
+      </c>
+      <c r="I89" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>9.61</v>
+      </c>
+      <c r="C90">
+        <v>16.03</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>6.4200000000000017</v>
+      </c>
+      <c r="G90" t="s">
+        <v>96</v>
+      </c>
+      <c r="H90">
+        <v>47</v>
+      </c>
+      <c r="I90" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>41.13</v>
+      </c>
+      <c r="C91">
+        <v>73.95</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>32.82</v>
+      </c>
+      <c r="G91" t="s">
+        <v>97</v>
+      </c>
+      <c r="H91">
+        <v>369</v>
+      </c>
+      <c r="I91" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>14.03</v>
+      </c>
+      <c r="C92">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>3.4100000000000019</v>
+      </c>
+      <c r="G92" t="s">
+        <v>98</v>
+      </c>
+      <c r="H92">
+        <v>45</v>
+      </c>
+      <c r="I92" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>24.99</v>
+      </c>
+      <c r="C93">
+        <v>9.81</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>-15.179999999999998</v>
+      </c>
+      <c r="G93" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93">
+        <v>19</v>
+      </c>
+      <c r="I93" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94">
+        <v>14.67</v>
+      </c>
+      <c r="C94">
+        <v>27.05</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>12.38</v>
+      </c>
+      <c r="G94" t="s">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>69</v>
+      </c>
+      <c r="I94" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95">
+        <v>13.61</v>
+      </c>
+      <c r="C95">
+        <v>53.82</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>40.21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>101</v>
+      </c>
+      <c r="H95">
+        <v>173</v>
+      </c>
+      <c r="I95" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>19.03</v>
+      </c>
+      <c r="C96">
+        <v>68.98</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>49.95</v>
+      </c>
+      <c r="G96" t="s">
+        <v>102</v>
+      </c>
+      <c r="H96">
+        <v>241</v>
+      </c>
+      <c r="I96" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C97">
+        <v>21.12</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>11.340000000000002</v>
+      </c>
+      <c r="G97" t="s">
+        <v>103</v>
+      </c>
+      <c r="H97">
+        <v>73</v>
+      </c>
+      <c r="I97" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
+        <v>7.1</v>
+      </c>
+      <c r="C98">
+        <v>12.29</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>5.1899999999999995</v>
+      </c>
+      <c r="G98" t="s">
+        <v>104</v>
+      </c>
+      <c r="H98">
+        <v>49</v>
+      </c>
+      <c r="I98" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>16.78</v>
+      </c>
+      <c r="C99">
+        <v>33.75</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>16.97</v>
+      </c>
+      <c r="G99" t="s">
+        <v>105</v>
+      </c>
+      <c r="H99">
+        <v>155</v>
+      </c>
+      <c r="I99" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
+        <v>27.09</v>
+      </c>
+      <c r="C100">
+        <v>40.33</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>13.239999999999998</v>
+      </c>
+      <c r="G100" t="s">
+        <v>106</v>
+      </c>
+      <c r="H100">
+        <v>169</v>
+      </c>
+      <c r="I100" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
+        <v>9.57</v>
+      </c>
+      <c r="C101">
+        <v>25.07</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>107</v>
+      </c>
+      <c r="H101">
+        <v>107</v>
+      </c>
+      <c r="I101" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102">
+        <v>21.51</v>
+      </c>
+      <c r="C102">
+        <v>68.94</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>47.429999999999993</v>
+      </c>
+      <c r="G102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H102">
+        <v>279</v>
+      </c>
+      <c r="I102" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103">
+        <v>13.94</v>
+      </c>
+      <c r="C103">
+        <v>24.15</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>10.209999999999999</v>
+      </c>
+      <c r="G103" t="s">
+        <v>109</v>
+      </c>
+      <c r="H103">
+        <v>97</v>
+      </c>
+      <c r="I103" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>10.57</v>
+      </c>
+      <c r="C104">
+        <v>21.62</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>11.05</v>
+      </c>
+      <c r="G104" t="s">
+        <v>110</v>
+      </c>
+      <c r="H104">
+        <v>51</v>
+      </c>
+      <c r="I104" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105">
+        <v>2.34</v>
+      </c>
+      <c r="C105">
+        <v>2.34</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>111</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106">
+        <v>6.52</v>
+      </c>
+      <c r="C106">
+        <v>6.54</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>112</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107">
+        <v>5.43</v>
+      </c>
+      <c r="C107">
+        <v>7.4</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>1.9700000000000006</v>
+      </c>
+      <c r="G107" t="s">
+        <v>113</v>
+      </c>
+      <c r="H107">
+        <v>31</v>
+      </c>
+      <c r="I107" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C108">
+        <v>4.32</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>114</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
+        <v>0.85</v>
+      </c>
+      <c r="C109">
+        <v>0.85</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>115</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <v>6.41</v>
+      </c>
+      <c r="C110">
+        <v>6.47</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111">
+        <v>15.27</v>
+      </c>
+      <c r="C111">
+        <v>15.35</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>117</v>
+      </c>
+      <c r="H111">
+        <v>9</v>
+      </c>
+      <c r="I111" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
+        <v>2.48</v>
+      </c>
+      <c r="C112">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="G112" t="s">
+        <v>118</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>1.77</v>
+      </c>
+      <c r="C113">
+        <v>1.78</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>119</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>1.01</v>
+      </c>
+      <c r="C114">
+        <v>1.03</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>120</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115">
+        <v>14.78</v>
+      </c>
+      <c r="C115">
+        <v>41.29</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>26.509999999999998</v>
+      </c>
+      <c r="G115" t="s">
+        <v>121</v>
+      </c>
+      <c r="H115">
+        <v>231</v>
+      </c>
+      <c r="I115" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C116">
+        <v>19.68</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>9.7199999999999989</v>
+      </c>
+      <c r="G116" t="s">
+        <v>122</v>
+      </c>
+      <c r="H116">
+        <v>31</v>
+      </c>
+      <c r="I116" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117">
+        <v>8.42</v>
+      </c>
+      <c r="C117">
+        <v>14.93</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>6.51</v>
+      </c>
+      <c r="G117" t="s">
+        <v>123</v>
+      </c>
+      <c r="H117">
+        <v>25</v>
+      </c>
+      <c r="I117" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118">
+        <v>14.89</v>
+      </c>
+      <c r="C118">
+        <v>44.01</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>29.119999999999997</v>
+      </c>
+      <c r="G118" t="s">
+        <v>124</v>
+      </c>
+      <c r="H118">
+        <v>129</v>
+      </c>
+      <c r="I118" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119">
+        <v>25.1</v>
+      </c>
+      <c r="C119">
+        <v>47.58</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>22.479999999999997</v>
+      </c>
+      <c r="G119" t="s">
+        <v>125</v>
+      </c>
+      <c r="H119">
+        <v>175</v>
+      </c>
+      <c r="I119" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120">
+        <v>22.33</v>
+      </c>
+      <c r="C120">
+        <v>53.99</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>31.660000000000004</v>
+      </c>
+      <c r="G120" t="s">
+        <v>126</v>
+      </c>
+      <c r="H120">
+        <v>167</v>
+      </c>
+      <c r="I120" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121">
+        <v>10.38</v>
+      </c>
+      <c r="C121">
+        <v>22.81</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>12.429999999999998</v>
+      </c>
+      <c r="G121" t="s">
+        <v>127</v>
+      </c>
+      <c r="H121">
+        <v>29</v>
+      </c>
+      <c r="I121" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122">
+        <v>7.46</v>
+      </c>
+      <c r="C122">
+        <v>13.82</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>6.36</v>
+      </c>
+      <c r="G122" t="s">
+        <v>128</v>
+      </c>
+      <c r="H122">
+        <v>15</v>
+      </c>
+      <c r="I122" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123">
+        <v>17.13</v>
+      </c>
+      <c r="C123">
+        <v>52.62</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>35.489999999999995</v>
+      </c>
+      <c r="G123" t="s">
+        <v>129</v>
+      </c>
+      <c r="H123">
+        <v>201</v>
+      </c>
+      <c r="I123" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C124">
+        <v>14.19</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>4.2299999999999986</v>
+      </c>
+      <c r="G124" t="s">
+        <v>130</v>
+      </c>
+      <c r="H124">
+        <v>11</v>
+      </c>
+      <c r="I124" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125">
+        <v>20.6</v>
+      </c>
+      <c r="C125">
+        <v>32.53</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>11.93</v>
+      </c>
+      <c r="G125" t="s">
+        <v>131</v>
+      </c>
+      <c r="H125">
+        <v>99</v>
+      </c>
+      <c r="I125" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="C126">
+        <v>312.3</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>244.23000000000002</v>
+      </c>
+      <c r="G126" t="s">
+        <v>132</v>
+      </c>
+      <c r="H126">
+        <v>695</v>
+      </c>
+      <c r="I126" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127">
+        <v>28.25</v>
+      </c>
+      <c r="C127">
+        <v>71.75</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>43.5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H127">
+        <v>353</v>
+      </c>
+      <c r="I127" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128">
+        <v>31.22</v>
+      </c>
+      <c r="C128">
+        <v>126.02</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>94.8</v>
+      </c>
+      <c r="G128" t="s">
+        <v>134</v>
+      </c>
+      <c r="H128">
+        <v>455</v>
+      </c>
+      <c r="I128" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129">
+        <v>23.38</v>
+      </c>
+      <c r="C129">
+        <v>55.31</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>31.930000000000003</v>
+      </c>
+      <c r="G129" t="s">
+        <v>135</v>
+      </c>
+      <c r="H129">
+        <v>153</v>
+      </c>
+      <c r="I129" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="C130">
+        <v>9.27</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>4.9999999999998934E-2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>136</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131">
+        <v>20.34</v>
+      </c>
+      <c r="C131">
+        <v>22.11</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="1"/>
+        <v>1.7699999999999996</v>
+      </c>
+      <c r="G131" t="s">
+        <v>137</v>
+      </c>
+      <c r="H131">
+        <v>17</v>
+      </c>
+      <c r="I131" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132">
+        <v>12.85</v>
+      </c>
+      <c r="C132">
+        <v>31.42</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="1"/>
+        <v>18.57</v>
+      </c>
+      <c r="G132" t="s">
+        <v>138</v>
+      </c>
+      <c r="H132">
+        <v>79</v>
+      </c>
+      <c r="I132" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133">
+        <v>15.37</v>
+      </c>
+      <c r="C133">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="1"/>
+        <v>2.1400000000000023</v>
+      </c>
+      <c r="G133" t="s">
+        <v>139</v>
+      </c>
+      <c r="H133">
+        <v>37</v>
+      </c>
+      <c r="I133" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="C134">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="D134">
+        <f t="shared" ref="D134:D136" si="2">C134-B134</f>
+        <v>20.37</v>
+      </c>
+      <c r="G134" t="s">
+        <v>140</v>
+      </c>
+      <c r="H134">
+        <v>171</v>
+      </c>
+      <c r="I134" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MADAM_ML.xlsx
+++ b/MADAM_ML.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lican/zen/home/canli/work/MADAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BB37D6-DF9F-0644-A167-7C8E0F4D1A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D23EEA-15EC-194B-80DD-681D6FCAB48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19380" activeTab="1" xr2:uid="{6D0D7AA5-BD27-A746-9CFF-CF05F7ED3826}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D0D7AA5-BD27-A746-9CFF-CF05F7ED3826}"/>
   </bookViews>
   <sheets>
-    <sheet name="Features" sheetId="1" r:id="rId1"/>
+    <sheet name="Supervised" sheetId="1" r:id="rId1"/>
     <sheet name="Benchmark" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="214">
   <si>
     <t>#node</t>
   </si>
@@ -44,21 +44,6 @@
     <t># L size</t>
   </si>
   <si>
-    <t># triag iter</t>
-  </si>
-  <si>
-    <t>#pent iter</t>
-  </si>
-  <si>
-    <t>#hept iter</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>UB</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -603,6 +588,96 @@
   </si>
   <si>
     <t>unweighted_100_09_5</t>
+  </si>
+  <si>
+    <t>using basic SDP relaxation to predict whether node can be fathomed by running params.triag_iter + params.pent_iter + params.hept_iter</t>
+  </si>
+  <si>
+    <t>bestincumbent</t>
+  </si>
+  <si>
+    <t>basic SDP bound</t>
+  </si>
+  <si>
+    <t>#hept trials</t>
+  </si>
+  <si>
+    <t>#pent trials</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>whether the best bound can fathom the node</t>
+  </si>
+  <si>
+    <t>rootnode time</t>
+  </si>
+  <si>
+    <t>density of maxcut</t>
+  </si>
+  <si>
+    <t>number of nodes in the maxcut problem</t>
+  </si>
+  <si>
+    <t>size of the problem at the current node</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>rootbound</t>
+  </si>
+  <si>
+    <t>bound at the rootnode by adding the cuts</t>
+  </si>
+  <si>
+    <t>best incumbent objective value</t>
+  </si>
+  <si>
+    <t>bound of basic SDP relaxation</t>
+  </si>
+  <si>
+    <t>number of trials for adding heptagonal inequalities</t>
+  </si>
+  <si>
+    <t>number of trials for adding pentagonal inequalities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solution time of rootnode </t>
+  </si>
+  <si>
+    <t>time ratio</t>
+  </si>
+  <si>
+    <t>solution time/rootnode solution time</t>
+  </si>
+  <si>
+    <t>0/1 value</t>
+  </si>
+  <si>
+    <t>Data collection run each node, start with different number of hept and pent trials until it terminates</t>
+  </si>
+  <si>
+    <t>record one level below it can be fathomed by MADAM bound</t>
+  </si>
+  <si>
+    <t>record the time and bound of each iteration, total time and iterations</t>
+  </si>
+  <si>
+    <t>each data point</t>
+  </si>
+  <si>
+    <t>iteration number, iteration time, iteration bound, #tri cuts, #pent cuts, #hept cuts]</t>
+  </si>
+  <si>
+    <t>rootbasicSDPbound</t>
+  </si>
+  <si>
+    <t>basic SDP bound at the rootnode</t>
+  </si>
+  <si>
+    <t>[#node, #L size, density, rootbound,  rootbasicSDPbound, basic SDP bound, best incumbent, #hept trials, #pent trials, final iteration, final bound, final time</t>
   </si>
 </sst>
 </file>
@@ -962,41 +1037,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B848A6-9F3F-084F-8125-A25210F03A25}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="B4:H23"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AD837-A94B-514F-A7DD-FC238877F7A9}">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1020,50 +1202,50 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>15.65</v>
@@ -1076,7 +1258,7 @@
         <v>20.9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>239</v>
@@ -1085,7 +1267,7 @@
         <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L5">
         <v>2.23</v>
@@ -1094,7 +1276,7 @@
         <v>5.65</v>
       </c>
       <c r="O5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P5">
         <v>15</v>
@@ -1105,7 +1287,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>70.290000000000006</v>
@@ -1118,7 +1300,7 @@
         <v>257.08999999999997</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>609</v>
@@ -1127,7 +1309,7 @@
         <v>341</v>
       </c>
       <c r="K6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L6">
         <v>1.03</v>
@@ -1136,7 +1318,7 @@
         <v>1.02</v>
       </c>
       <c r="O6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1147,7 +1329,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>7.81</v>
@@ -1160,7 +1342,7 @@
         <v>12.060000000000002</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>61</v>
@@ -1169,7 +1351,7 @@
         <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L7">
         <v>2.98</v>
@@ -1178,7 +1360,7 @@
         <v>4.58</v>
       </c>
       <c r="O7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P7">
         <v>15</v>
@@ -1189,7 +1371,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>18.489999999999998</v>
@@ -1202,7 +1384,7 @@
         <v>44.150000000000006</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>501</v>
@@ -1211,7 +1393,7 @@
         <v>145</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L8">
         <v>3.28</v>
@@ -1220,7 +1402,7 @@
         <v>5.26</v>
       </c>
       <c r="O8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P8">
         <v>33</v>
@@ -1231,7 +1413,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>4.95</v>
@@ -1244,7 +1426,7 @@
         <v>1.5699999999999994</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1253,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L9">
         <v>5.72</v>
@@ -1262,7 +1444,7 @@
         <v>4.8</v>
       </c>
       <c r="O9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P9">
         <v>15</v>
@@ -1273,7 +1455,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>6.04</v>
@@ -1286,7 +1468,7 @@
         <v>6.7399999999999993</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>39</v>
@@ -1295,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L10">
         <v>12.36</v>
@@ -1304,7 +1486,7 @@
         <v>28.04</v>
       </c>
       <c r="O10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P10">
         <v>175</v>
@@ -1315,7 +1497,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>10.38</v>
@@ -1328,7 +1510,7 @@
         <v>4.3899999999999988</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>57</v>
@@ -1337,7 +1519,7 @@
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L11">
         <v>11.46</v>
@@ -1346,7 +1528,7 @@
         <v>26.63</v>
       </c>
       <c r="O11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P11">
         <v>217</v>
@@ -1357,7 +1539,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>18.690000000000001</v>
@@ -1370,7 +1552,7 @@
         <v>17.179999999999996</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <v>107</v>
@@ -1379,7 +1561,7 @@
         <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L12">
         <v>5.8</v>
@@ -1388,7 +1570,7 @@
         <v>11.66</v>
       </c>
       <c r="O12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P12">
         <v>53</v>
@@ -1399,7 +1581,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>17.23</v>
@@ -1412,7 +1594,7 @@
         <v>-1.2199999999999989</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>163</v>
@@ -1421,7 +1603,7 @@
         <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L13">
         <v>4</v>
@@ -1430,7 +1612,7 @@
         <v>7.23</v>
       </c>
       <c r="O13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P13">
         <v>47</v>
@@ -1441,7 +1623,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>11.32</v>
@@ -1454,7 +1636,7 @@
         <v>10.329999999999998</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>265</v>
@@ -1463,7 +1645,7 @@
         <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L14">
         <v>2.85</v>
@@ -1472,7 +1654,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="O14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P14">
         <v>25</v>
@@ -1483,7 +1665,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0.56000000000000005</v>
@@ -1496,7 +1678,7 @@
         <v>9.9999999999998979E-3</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1505,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L15">
         <v>8.9700000000000006</v>
@@ -1514,7 +1696,7 @@
         <v>20.420000000000002</v>
       </c>
       <c r="O15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P15">
         <v>99</v>
@@ -1525,7 +1707,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.31</v>
@@ -1538,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1547,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L16">
         <v>3.53</v>
@@ -1556,7 +1738,7 @@
         <v>7.26</v>
       </c>
       <c r="O16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P16">
         <v>43</v>
@@ -1567,7 +1749,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1.36</v>
@@ -1580,7 +1762,7 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1589,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L17">
         <v>7.98</v>
@@ -1598,7 +1780,7 @@
         <v>20.67</v>
       </c>
       <c r="O17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P17">
         <v>149</v>
@@ -1609,7 +1791,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0.31</v>
@@ -1622,7 +1804,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1631,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L18">
         <v>12.42</v>
@@ -1640,7 +1822,7 @@
         <v>20.93</v>
       </c>
       <c r="O18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P18">
         <v>279</v>
@@ -1651,7 +1833,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>1.33</v>
@@ -1664,7 +1846,7 @@
         <v>0.51</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <v>9</v>
@@ -1673,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L19">
         <v>14.72</v>
@@ -1682,7 +1864,7 @@
         <v>39.39</v>
       </c>
       <c r="O19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P19">
         <v>267</v>
@@ -1693,7 +1875,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.19</v>
@@ -1706,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1715,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L20">
         <v>24.01</v>
@@ -1724,7 +1906,7 @@
         <v>83.14</v>
       </c>
       <c r="O20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P20">
         <v>443</v>
@@ -1735,7 +1917,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>1.05</v>
@@ -1748,7 +1930,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1757,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L21">
         <v>15.58</v>
@@ -1766,7 +1948,7 @@
         <v>25.78</v>
       </c>
       <c r="O21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P21">
         <v>79</v>
@@ -1777,7 +1959,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1.22</v>
@@ -1790,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1799,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L22">
         <v>7.33</v>
@@ -1808,7 +1990,7 @@
         <v>16.61</v>
       </c>
       <c r="O22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P22">
         <v>67</v>
@@ -1819,7 +2001,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1.1100000000000001</v>
@@ -1832,7 +2014,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1841,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L23">
         <v>6.06</v>
@@ -1850,7 +2032,7 @@
         <v>15.08</v>
       </c>
       <c r="O23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P23">
         <v>51</v>
@@ -1861,7 +2043,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>1.9</v>
@@ -1874,7 +2056,7 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1883,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L24">
         <v>6.02</v>
@@ -1892,7 +2074,7 @@
         <v>8.34</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P24">
         <v>47</v>
@@ -1903,7 +2085,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>2.66</v>
@@ -1916,7 +2098,7 @@
         <v>2.1099999999999994</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H25">
         <v>19</v>
@@ -1925,7 +2107,7 @@
         <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L25">
         <v>14.31</v>
@@ -1934,7 +2116,7 @@
         <v>43.72</v>
       </c>
       <c r="O25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P25">
         <v>325</v>
@@ -1945,7 +2127,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>1.46</v>
@@ -1958,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1967,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L26">
         <v>3.16</v>
@@ -1976,7 +2158,7 @@
         <v>7.62</v>
       </c>
       <c r="O26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P26">
         <v>31</v>
@@ -1987,7 +2169,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>2.2999999999999998</v>
@@ -2000,7 +2182,7 @@
         <v>0.42000000000000037</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -2009,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L27">
         <v>30.5</v>
@@ -2018,7 +2200,7 @@
         <v>78.38</v>
       </c>
       <c r="O27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P27">
         <v>291</v>
@@ -2029,7 +2211,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>5.9</v>
@@ -2042,7 +2224,7 @@
         <v>7.9399999999999995</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>209</v>
@@ -2051,7 +2233,7 @@
         <v>63</v>
       </c>
       <c r="K28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L28">
         <v>22.12</v>
@@ -2060,7 +2242,7 @@
         <v>39.520000000000003</v>
       </c>
       <c r="O28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P28">
         <v>129</v>
@@ -2071,7 +2253,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>3.67</v>
@@ -2084,7 +2266,7 @@
         <v>1.0899999999999999</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>9</v>
@@ -2093,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="K29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L29">
         <v>6.1</v>
@@ -2102,7 +2284,7 @@
         <v>7.14</v>
       </c>
       <c r="O29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P29">
         <v>29</v>
@@ -2113,7 +2295,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>2.37</v>
@@ -2126,7 +2308,7 @@
         <v>1.0899999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>15</v>
@@ -2135,7 +2317,7 @@
         <v>9</v>
       </c>
       <c r="K30" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L30">
         <v>8.44</v>
@@ -2144,7 +2326,7 @@
         <v>15.05</v>
       </c>
       <c r="O30" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P30">
         <v>57</v>
@@ -2155,7 +2337,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>3.2</v>
@@ -2168,7 +2350,7 @@
         <v>0.55999999999999961</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>9</v>
@@ -2177,7 +2359,7 @@
         <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L31">
         <v>18.809999999999999</v>
@@ -2186,7 +2368,7 @@
         <v>37.869999999999997</v>
       </c>
       <c r="O31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P31">
         <v>161</v>
@@ -2197,7 +2379,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>2.46</v>
@@ -2210,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -2219,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L32">
         <v>16.260000000000002</v>
@@ -2228,7 +2410,7 @@
         <v>58.85</v>
       </c>
       <c r="O32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P32">
         <v>451</v>
@@ -2239,7 +2421,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>2.64</v>
@@ -2252,7 +2434,7 @@
         <v>1.31</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>13</v>
@@ -2261,7 +2443,7 @@
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L33">
         <v>8.11</v>
@@ -2270,7 +2452,7 @@
         <v>15.98</v>
       </c>
       <c r="O33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P33">
         <v>97</v>
@@ -2281,7 +2463,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>2.61</v>
@@ -2294,7 +2476,7 @@
         <v>3.35</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>33</v>
@@ -2303,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="K34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L34">
         <v>23.18</v>
@@ -2312,7 +2494,7 @@
         <v>43.03</v>
       </c>
       <c r="O34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P34">
         <v>177</v>
@@ -2323,7 +2505,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>18.489999999999998</v>
@@ -2336,7 +2518,7 @@
         <v>38.69</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>345</v>
@@ -2345,7 +2527,7 @@
         <v>125</v>
       </c>
       <c r="K35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L35">
         <v>14.63</v>
@@ -2354,7 +2536,7 @@
         <v>31.78</v>
       </c>
       <c r="O35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P35">
         <v>131</v>
@@ -2365,7 +2547,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>30.68</v>
@@ -2378,7 +2560,7 @@
         <v>99.239999999999981</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>601</v>
@@ -2387,7 +2569,7 @@
         <v>213</v>
       </c>
       <c r="K36" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L36">
         <v>9.18</v>
@@ -2396,7 +2578,7 @@
         <v>15.92</v>
       </c>
       <c r="O36" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P36">
         <v>117</v>
@@ -2407,7 +2589,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>17.329999999999998</v>
@@ -2420,7 +2602,7 @@
         <v>55.870000000000005</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>543</v>
@@ -2429,7 +2611,7 @@
         <v>149</v>
       </c>
       <c r="K37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L37">
         <v>27.41</v>
@@ -2438,7 +2620,7 @@
         <v>71.19</v>
       </c>
       <c r="O37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P37">
         <v>641</v>
@@ -2449,7 +2631,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>9.82</v>
@@ -2462,7 +2644,7 @@
         <v>8.7199999999999989</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>105</v>
@@ -2471,7 +2653,7 @@
         <v>43</v>
       </c>
       <c r="K38" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L38">
         <v>7.28</v>
@@ -2480,7 +2662,7 @@
         <v>10.3</v>
       </c>
       <c r="O38" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P38">
         <v>59</v>
@@ -2491,7 +2673,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>17.87</v>
@@ -2504,7 +2686,7 @@
         <v>42.150000000000006</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>255</v>
@@ -2513,7 +2695,7 @@
         <v>123</v>
       </c>
       <c r="K39" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L39">
         <v>6.1</v>
@@ -2522,7 +2704,7 @@
         <v>7.33</v>
       </c>
       <c r="O39" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P39">
         <v>31</v>
@@ -2533,7 +2715,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>9.81</v>
@@ -2546,7 +2728,7 @@
         <v>12.47</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H40">
         <v>77</v>
@@ -2555,7 +2737,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L40">
         <v>7.7</v>
@@ -2564,7 +2746,7 @@
         <v>14.93</v>
       </c>
       <c r="O40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P40">
         <v>53</v>
@@ -2575,7 +2757,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>9.42</v>
@@ -2588,7 +2770,7 @@
         <v>4.26</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>61</v>
@@ -2597,7 +2779,7 @@
         <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L41">
         <v>15.41</v>
@@ -2606,7 +2788,7 @@
         <v>41.59</v>
       </c>
       <c r="O41" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P41">
         <v>185</v>
@@ -2617,7 +2799,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>6.31</v>
@@ -2630,7 +2812,7 @@
         <v>10.89</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H42">
         <v>17</v>
@@ -2639,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L42">
         <v>7.36</v>
@@ -2648,7 +2830,7 @@
         <v>10.49</v>
       </c>
       <c r="O42" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P42">
         <v>61</v>
@@ -2659,7 +2841,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>4.7699999999999996</v>
@@ -2672,7 +2854,7 @@
         <v>3.1700000000000008</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>15</v>
@@ -2681,7 +2863,7 @@
         <v>15</v>
       </c>
       <c r="K43" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L43">
         <v>36.57</v>
@@ -2690,7 +2872,7 @@
         <v>97.86</v>
       </c>
       <c r="O43" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P43">
         <v>355</v>
@@ -2701,7 +2883,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>9.48</v>
@@ -2714,7 +2896,7 @@
         <v>9.5999999999999979</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H44">
         <v>79</v>
@@ -2723,7 +2905,7 @@
         <v>57</v>
       </c>
       <c r="K44" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L44">
         <v>16.16</v>
@@ -2732,7 +2914,7 @@
         <v>31.11</v>
       </c>
       <c r="O44" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P44">
         <v>255</v>
@@ -2743,7 +2925,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>2.4700000000000002</v>
@@ -2756,7 +2938,7 @@
         <v>0.85999999999999988</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H45">
         <v>7</v>
@@ -2765,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="K45" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L45">
         <v>4.17</v>
@@ -2774,7 +2956,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="O45" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P45">
         <v>7</v>
@@ -2785,7 +2967,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>4.4800000000000004</v>
@@ -2798,7 +2980,7 @@
         <v>3.5</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H46">
         <v>53</v>
@@ -2807,7 +2989,7 @@
         <v>29</v>
       </c>
       <c r="K46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L46">
         <v>12.93</v>
@@ -2816,7 +2998,7 @@
         <v>10.88</v>
       </c>
       <c r="O46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P46">
         <v>145</v>
@@ -2827,7 +3009,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>5.68</v>
@@ -2840,7 +3022,7 @@
         <v>7.18</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H47">
         <v>33</v>
@@ -2849,7 +3031,7 @@
         <v>15</v>
       </c>
       <c r="K47" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L47">
         <v>6.49</v>
@@ -2858,7 +3040,7 @@
         <v>7.26</v>
       </c>
       <c r="O47" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P47">
         <v>93</v>
@@ -2869,7 +3051,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>2.73</v>
@@ -2882,7 +3064,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -2891,7 +3073,7 @@
         <v>5</v>
       </c>
       <c r="K48" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L48">
         <v>18.760000000000002</v>
@@ -2900,7 +3082,7 @@
         <v>26.22</v>
       </c>
       <c r="O48" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P48">
         <v>339</v>
@@ -2911,7 +3093,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>2.94</v>
@@ -2924,7 +3106,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H49">
         <v>7</v>
@@ -2933,7 +3115,7 @@
         <v>7</v>
       </c>
       <c r="K49" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L49">
         <v>5.65</v>
@@ -2942,7 +3124,7 @@
         <v>15.93</v>
       </c>
       <c r="O49" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P49">
         <v>55</v>
@@ -2953,7 +3135,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>4.1399999999999997</v>
@@ -2966,7 +3148,7 @@
         <v>5.3400000000000007</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H50">
         <v>77</v>
@@ -2977,7 +3159,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>4.43</v>
@@ -2990,7 +3172,7 @@
         <v>0.23000000000000043</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H51">
         <v>25</v>
@@ -3001,7 +3183,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>3.57</v>
@@ -3014,7 +3196,7 @@
         <v>4.7199999999999989</v>
       </c>
       <c r="G52" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H52">
         <v>21</v>
@@ -3025,7 +3207,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>3.84</v>
@@ -3038,7 +3220,7 @@
         <v>1.1600000000000001</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -3049,7 +3231,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>1.94</v>
@@ -3062,7 +3244,7 @@
         <v>1.0899999999999999</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -3073,7 +3255,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>2.25</v>
@@ -3086,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -3097,7 +3279,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>4.24</v>
@@ -3110,7 +3292,7 @@
         <v>3.4399999999999995</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H56">
         <v>23</v>
@@ -3121,7 +3303,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>1.28</v>
@@ -3134,7 +3316,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -3145,7 +3327,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>9.4700000000000006</v>
@@ -3158,7 +3340,7 @@
         <v>-2.74</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H58">
         <v>37</v>
@@ -3169,7 +3351,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>4.2699999999999996</v>
@@ -3182,7 +3364,7 @@
         <v>1.0500000000000007</v>
       </c>
       <c r="G59" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H59">
         <v>7</v>
@@ -3193,7 +3375,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>2.16</v>
@@ -3206,7 +3388,7 @@
         <v>0.77</v>
       </c>
       <c r="G60" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -3217,7 +3399,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>4.03</v>
@@ -3230,7 +3412,7 @@
         <v>2.3499999999999996</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H61">
         <v>13</v>
@@ -3241,7 +3423,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>0.48</v>
@@ -3254,7 +3436,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -3265,7 +3447,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>3.32</v>
@@ -3278,7 +3460,7 @@
         <v>3.0000000000000249E-2</v>
       </c>
       <c r="G63" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -3289,7 +3471,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>2.48</v>
@@ -3302,7 +3484,7 @@
         <v>6.999999999999984E-2</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -3313,7 +3495,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>0.54</v>
@@ -3326,7 +3508,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -3337,7 +3519,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>0.61</v>
@@ -3350,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -3361,7 +3543,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>2.96</v>
@@ -3374,7 +3556,7 @@
         <v>1.0000000000000231E-2</v>
       </c>
       <c r="G67" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -3385,7 +3567,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>1.31</v>
@@ -3398,7 +3580,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="G68" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -3409,7 +3591,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>0.53</v>
@@ -3422,7 +3604,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -3433,7 +3615,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>0.51</v>
@@ -3446,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -3457,7 +3639,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>0.84</v>
@@ -3470,7 +3652,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="G71" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -3481,7 +3663,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>0.38</v>
@@ -3494,7 +3676,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="G72" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -3505,7 +3687,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>1.77</v>
@@ -3518,7 +3700,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -3529,7 +3711,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>0.42</v>
@@ -3542,7 +3724,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="G74" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -3553,7 +3735,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>3.59</v>
@@ -3566,7 +3748,7 @@
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="G75" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -3577,7 +3759,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>10.53</v>
@@ -3590,7 +3772,7 @@
         <v>-1.5099999999999998</v>
       </c>
       <c r="G76" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H76">
         <v>7</v>
@@ -3601,7 +3783,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>5.8</v>
@@ -3614,7 +3796,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G77" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -3625,7 +3807,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>3.78</v>
@@ -3638,7 +3820,7 @@
         <v>1.6700000000000004</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H78">
         <v>7</v>
@@ -3649,7 +3831,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>1.36</v>
@@ -3662,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -3673,7 +3855,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>1.24</v>
@@ -3686,7 +3868,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -3697,7 +3879,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>5.7</v>
@@ -3710,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -3721,7 +3903,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>4.01</v>
@@ -3734,7 +3916,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G82" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -3745,7 +3927,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>0.6</v>
@@ -3758,7 +3940,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="G83" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -3769,7 +3951,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>6.38</v>
@@ -3782,7 +3964,7 @@
         <v>1.3200000000000003</v>
       </c>
       <c r="G84" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H84">
         <v>25</v>
@@ -3793,7 +3975,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>31.04</v>
@@ -3806,7 +3988,7 @@
         <v>85.32</v>
       </c>
       <c r="G85" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H85">
         <v>761</v>
@@ -3817,7 +3999,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>14.02</v>
@@ -3830,7 +4012,7 @@
         <v>18.059999999999999</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H86">
         <v>109</v>
@@ -3841,7 +4023,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>15.39</v>
@@ -3854,7 +4036,7 @@
         <v>23.29</v>
       </c>
       <c r="G87" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H87">
         <v>159</v>
@@ -3865,7 +4047,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>6.11</v>
@@ -3878,7 +4060,7 @@
         <v>5.56</v>
       </c>
       <c r="G88" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H88">
         <v>35</v>
@@ -3889,7 +4071,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>18.07</v>
@@ -3902,7 +4084,7 @@
         <v>32.94</v>
       </c>
       <c r="G89" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H89">
         <v>185</v>
@@ -3913,7 +4095,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>9.61</v>
@@ -3926,7 +4108,7 @@
         <v>6.4200000000000017</v>
       </c>
       <c r="G90" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H90">
         <v>47</v>
@@ -3937,7 +4119,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>41.13</v>
@@ -3950,7 +4132,7 @@
         <v>32.82</v>
       </c>
       <c r="G91" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H91">
         <v>369</v>
@@ -3961,7 +4143,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>14.03</v>
@@ -3974,7 +4156,7 @@
         <v>3.4100000000000019</v>
       </c>
       <c r="G92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H92">
         <v>45</v>
@@ -3985,7 +4167,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <v>24.99</v>
@@ -3998,7 +4180,7 @@
         <v>-15.179999999999998</v>
       </c>
       <c r="G93" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H93">
         <v>19</v>
@@ -4009,7 +4191,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B94">
         <v>14.67</v>
@@ -4022,7 +4204,7 @@
         <v>12.38</v>
       </c>
       <c r="G94" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H94">
         <v>69</v>
@@ -4033,7 +4215,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B95">
         <v>13.61</v>
@@ -4046,7 +4228,7 @@
         <v>40.21</v>
       </c>
       <c r="G95" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H95">
         <v>173</v>
@@ -4057,7 +4239,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>19.03</v>
@@ -4070,7 +4252,7 @@
         <v>49.95</v>
       </c>
       <c r="G96" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H96">
         <v>241</v>
@@ -4081,7 +4263,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B97">
         <v>9.7799999999999994</v>
@@ -4094,7 +4276,7 @@
         <v>11.340000000000002</v>
       </c>
       <c r="G97" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H97">
         <v>73</v>
@@ -4105,7 +4287,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B98">
         <v>7.1</v>
@@ -4118,7 +4300,7 @@
         <v>5.1899999999999995</v>
       </c>
       <c r="G98" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H98">
         <v>49</v>
@@ -4129,7 +4311,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>16.78</v>
@@ -4142,7 +4324,7 @@
         <v>16.97</v>
       </c>
       <c r="G99" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H99">
         <v>155</v>
@@ -4153,7 +4335,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>27.09</v>
@@ -4166,7 +4348,7 @@
         <v>13.239999999999998</v>
       </c>
       <c r="G100" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H100">
         <v>169</v>
@@ -4177,7 +4359,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>9.57</v>
@@ -4190,7 +4372,7 @@
         <v>15.5</v>
       </c>
       <c r="G101" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H101">
         <v>107</v>
@@ -4201,7 +4383,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>21.51</v>
@@ -4214,7 +4396,7 @@
         <v>47.429999999999993</v>
       </c>
       <c r="G102" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H102">
         <v>279</v>
@@ -4225,7 +4407,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>13.94</v>
@@ -4238,7 +4420,7 @@
         <v>10.209999999999999</v>
       </c>
       <c r="G103" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H103">
         <v>97</v>
@@ -4249,7 +4431,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>10.57</v>
@@ -4262,7 +4444,7 @@
         <v>11.05</v>
       </c>
       <c r="G104" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H104">
         <v>51</v>
@@ -4273,7 +4455,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B105">
         <v>2.34</v>
@@ -4286,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -4297,7 +4479,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B106">
         <v>6.52</v>
@@ -4310,7 +4492,7 @@
         <v>2.0000000000000462E-2</v>
       </c>
       <c r="G106" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -4321,7 +4503,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>5.43</v>
@@ -4334,7 +4516,7 @@
         <v>1.9700000000000006</v>
       </c>
       <c r="G107" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H107">
         <v>31</v>
@@ -4345,7 +4527,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>4.2699999999999996</v>
@@ -4358,7 +4540,7 @@
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="G108" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -4369,7 +4551,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>0.85</v>
@@ -4382,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -4393,7 +4575,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>6.41</v>
@@ -4406,7 +4588,7 @@
         <v>5.9999999999999609E-2</v>
       </c>
       <c r="G110" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -4417,7 +4599,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>15.27</v>
@@ -4430,7 +4612,7 @@
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="G111" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H111">
         <v>9</v>
@@ -4441,7 +4623,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>2.48</v>
@@ -4454,7 +4636,7 @@
         <v>-9.9999999999997868E-3</v>
       </c>
       <c r="G112" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -4465,7 +4647,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>1.77</v>
@@ -4478,7 +4660,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="G113" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -4489,7 +4671,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>1.01</v>
@@ -4502,7 +4684,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="G114" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -4513,7 +4695,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>14.78</v>
@@ -4526,7 +4708,7 @@
         <v>26.509999999999998</v>
       </c>
       <c r="G115" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H115">
         <v>231</v>
@@ -4537,7 +4719,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>9.9600000000000009</v>
@@ -4550,7 +4732,7 @@
         <v>9.7199999999999989</v>
       </c>
       <c r="G116" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H116">
         <v>31</v>
@@ -4561,7 +4743,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>8.42</v>
@@ -4574,7 +4756,7 @@
         <v>6.51</v>
       </c>
       <c r="G117" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H117">
         <v>25</v>
@@ -4585,7 +4767,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>14.89</v>
@@ -4598,7 +4780,7 @@
         <v>29.119999999999997</v>
       </c>
       <c r="G118" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H118">
         <v>129</v>
@@ -4609,7 +4791,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B119">
         <v>25.1</v>
@@ -4622,7 +4804,7 @@
         <v>22.479999999999997</v>
       </c>
       <c r="G119" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H119">
         <v>175</v>
@@ -4633,7 +4815,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>22.33</v>
@@ -4646,7 +4828,7 @@
         <v>31.660000000000004</v>
       </c>
       <c r="G120" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H120">
         <v>167</v>
@@ -4657,7 +4839,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B121">
         <v>10.38</v>
@@ -4670,7 +4852,7 @@
         <v>12.429999999999998</v>
       </c>
       <c r="G121" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H121">
         <v>29</v>
@@ -4681,7 +4863,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>7.46</v>
@@ -4694,7 +4876,7 @@
         <v>6.36</v>
       </c>
       <c r="G122" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H122">
         <v>15</v>
@@ -4705,7 +4887,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B123">
         <v>17.13</v>
@@ -4718,7 +4900,7 @@
         <v>35.489999999999995</v>
       </c>
       <c r="G123" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H123">
         <v>201</v>
@@ -4729,7 +4911,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B124">
         <v>9.9600000000000009</v>
@@ -4742,7 +4924,7 @@
         <v>4.2299999999999986</v>
       </c>
       <c r="G124" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H124">
         <v>11</v>
@@ -4753,7 +4935,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B125">
         <v>20.6</v>
@@ -4766,7 +4948,7 @@
         <v>11.93</v>
       </c>
       <c r="G125" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H125">
         <v>99</v>
@@ -4777,7 +4959,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B126">
         <v>68.069999999999993</v>
@@ -4790,7 +4972,7 @@
         <v>244.23000000000002</v>
       </c>
       <c r="G126" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H126">
         <v>695</v>
@@ -4801,7 +4983,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B127">
         <v>28.25</v>
@@ -4814,7 +4996,7 @@
         <v>43.5</v>
       </c>
       <c r="G127" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H127">
         <v>353</v>
@@ -4825,7 +5007,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B128">
         <v>31.22</v>
@@ -4838,7 +5020,7 @@
         <v>94.8</v>
       </c>
       <c r="G128" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H128">
         <v>455</v>
@@ -4849,7 +5031,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>23.38</v>
@@ -4862,7 +5044,7 @@
         <v>31.930000000000003</v>
       </c>
       <c r="G129" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H129">
         <v>153</v>
@@ -4873,7 +5055,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B130">
         <v>9.2200000000000006</v>
@@ -4886,7 +5068,7 @@
         <v>4.9999999999998934E-2</v>
       </c>
       <c r="G130" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -4897,7 +5079,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B131">
         <v>20.34</v>
@@ -4910,7 +5092,7 @@
         <v>1.7699999999999996</v>
       </c>
       <c r="G131" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H131">
         <v>17</v>
@@ -4921,7 +5103,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B132">
         <v>12.85</v>
@@ -4934,7 +5116,7 @@
         <v>18.57</v>
       </c>
       <c r="G132" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H132">
         <v>79</v>
@@ -4945,7 +5127,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B133">
         <v>15.37</v>
@@ -4958,7 +5140,7 @@
         <v>2.1400000000000023</v>
       </c>
       <c r="G133" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H133">
         <v>37</v>
@@ -4969,7 +5151,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B134">
         <v>19.260000000000002</v>
@@ -4982,7 +5164,7 @@
         <v>20.37</v>
       </c>
       <c r="G134" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H134">
         <v>171</v>
@@ -4993,26 +5175,26 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D136">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
